--- a/config/xml/scene.xlsx
+++ b/config/xml/scene.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louie\Desktop\新建文件夹 (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiejin/Workspace/github/nw_mmorpg/config/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85556F05-70EA-0F40-949D-B9A1121C3769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="621"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26380" windowHeight="17460" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="scene" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scene!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scene!$A$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>王丽</author>
-    <author>lwk</author>
-    <author>huangpeng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,50 +55,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>指定世界场景中的一部分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>huangpeng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：副本
-1：静态、唯一场景</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Scene</t>
   </si>
@@ -116,9 +77,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>场景类型</t>
-  </si>
-  <si>
     <t>客户端场景特写类</t>
   </si>
   <si>
@@ -128,114 +86,75 @@
     <t>//Desc</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>创角</t>
-  </si>
-  <si>
     <t>world</t>
   </si>
   <si>
-    <t>川渝</t>
-  </si>
-  <si>
-    <t>东南</t>
-  </si>
-  <si>
-    <t>琼州</t>
-  </si>
-  <si>
-    <t>湖广</t>
-  </si>
-  <si>
-    <t>江南</t>
-  </si>
-  <si>
-    <t>琉球</t>
-  </si>
-  <si>
-    <t>直隶</t>
-  </si>
-  <si>
-    <t>齐鲁</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
     <t>output</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>uid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>sheet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>scene</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>protoid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>res_path</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>uid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string|c</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string|s</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string|s</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>implclass</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>scenetype</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属世界场景组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>world_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村</t>
+  </si>
+  <si>
+    <t>萧山</t>
+  </si>
+  <si>
+    <t>杭州</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -260,13 +179,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -323,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,20 +250,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 12" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 12" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,46 +600,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -741,27 +647,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="A4:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.5" style="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,301 +682,103 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="17">
+      <c r="A4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3001</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3001</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3001</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>3004</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3004</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3004</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="17">
+      <c r="A5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="17">
       <c r="A6" s="3">
-        <v>11</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>13</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I14"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
